--- a/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 UL2054 Report.xlsx
+++ b/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 UL2054 Report.xlsx
@@ -459,8 +459,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page None (loc: cropped_image:model_name.png): "Model
-20HK2"</t>
+          <t>Page None (loc: cropped_image:model_name.png): "20HK2"</t>
         </is>
       </c>
     </row>
@@ -475,8 +474,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Page None (loc: cropped_image:nominal_voltage_v.png): "Voltage (Nominal), Vdc
-15.6"</t>
+          <t>Page None (loc: cropped_image:nominal_voltage_v.png): "15.6"</t>
         </is>
       </c>
     </row>
@@ -491,8 +489,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Page None (loc: cropped_image:typ_batt_capacity_wh.png): "Capacity (Nominal), mAh
-4102mAh / 64Wh"</t>
+          <t>Page None (loc: cropped_image:typ_batt_capacity_wh.png): "4102mAh / 64Wh"</t>
         </is>
       </c>
     </row>
@@ -507,8 +504,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Page None (loc: cropped_image:typ_capacity_mah.png): "Capacity (Nominal), mAh
-4102mAh / 64Wh"</t>
+          <t>Page None (loc: cropped_image:typ_capacity_mah.png): "4102mAh / 64Wh"</t>
         </is>
       </c>
     </row>
@@ -546,7 +542,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。所有欄位值均來自切圖 OCR，無額定容量與額定能量資訊；typical 容量同時提供 mAh 與 Wh。</t>
+          <t>頁碼採絕對 1-based。所有欄位值均來自切圖，無額定容量與額定能量資訊；切圖與 hints 搜尋均未獲 rated 欄位值。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 UL2054 Report.xlsx
+++ b/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 UL2054 Report.xlsx
@@ -459,7 +459,8 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page None (loc: cropped_image:model_name.png): "20HK2"</t>
+          <t>Page None (loc: cropped_image:model_name.png): "Model
+20HK2"</t>
         </is>
       </c>
     </row>
@@ -474,7 +475,8 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Page None (loc: cropped_image:nominal_voltage_v.png): "15.6"</t>
+          <t>Page None (loc: cropped_image:nominal_voltage_v.png): "Voltage (Nominal), Vdc
+15.6"</t>
         </is>
       </c>
     </row>
@@ -489,7 +491,8 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Page None (loc: cropped_image:typ_batt_capacity_wh.png): "4102mAh / 64Wh"</t>
+          <t>Page None (loc: cropped_image:typ_batt_capacity_wh.png): "Capacity (Nominal), mAh
+4102mAh / 64Wh"</t>
         </is>
       </c>
     </row>
@@ -504,7 +507,8 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Page None (loc: cropped_image:typ_capacity_mah.png): "4102mAh / 64Wh"</t>
+          <t>Page None (loc: cropped_image:typ_capacity_mah.png): "Capacity (Nominal), mAh
+4102mAh / 64Wh"</t>
         </is>
       </c>
     </row>
@@ -542,7 +546,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。所有欄位值均來自切圖，無額定容量與額定能量資訊；切圖與 hints 搜尋均未獲 rated 欄位值。</t>
+          <t>頁碼採絕對 1-based。所有欄位值均來自切圖 OCR，未提供 hints.page 故 evidence.page=null。文件僅提供 nominal（typical）容量與電壓，未提供額定容量與額定能量。</t>
         </is>
       </c>
     </row>
